--- a/data/MIL-STD-881D WBS Definitions.xlsx
+++ b/data/MIL-STD-881D WBS Definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Germo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DF46C3-3DD5-4528-8824-CD652A6FB331}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8E5EB8-2739-4718-9594-F5907472CC36}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" activeTab="5" xr2:uid="{E376039D-214F-4EC8-A668-61D154B3C23F}"/>
+    <workbookView xWindow="6075" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{E376039D-214F-4EC8-A668-61D154B3C23F}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="2" r:id="rId1"/>
@@ -22,9 +22,8 @@
     <sheet name="G" sheetId="1" r:id="rId7"/>
     <sheet name="H" sheetId="8" r:id="rId8"/>
     <sheet name="I" sheetId="9" r:id="rId9"/>
-    <sheet name="J1" sheetId="10" r:id="rId10"/>
-    <sheet name="J2" sheetId="11" r:id="rId11"/>
-    <sheet name="K" sheetId="12" r:id="rId12"/>
+    <sheet name="J" sheetId="10" r:id="rId10"/>
+    <sheet name="K" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5740" uniqueCount="2277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5811" uniqueCount="2278">
   <si>
     <t xml:space="preserve">Ground Vehicle System </t>
   </si>
@@ -9284,6 +9283,9 @@
 b. If the booster adapter is not captured under the space vehicle element, it should be captured within this element or the OTV element.
 c. Payload fairings
 NOTE: For lower level information, use the structure and definitions in Appendix I, Launch Vehicle if required.</t>
+  </si>
+  <si>
+    <t>1.10</t>
   </si>
 </sst>
 </file>
@@ -9331,7 +9333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9339,7 +9341,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9658,14 +9663,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2462F5-5333-4F09-AE35-8C5B30EC82FC}">
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="12.45" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="207" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.9140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.08203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.6640625" style="2"/>
   </cols>
@@ -11143,8 +11148,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
-        <v>1.1000000000000001</v>
+      <c r="A94" s="3" t="s">
+        <v>2277</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>96</v>
@@ -11796,18 +11801,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1D9286-DAC6-4DD9-8F48-1D8F77FB01ED}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.33203125" defaultRowHeight="12.45" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.9140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="110.9140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.9140625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="59.33203125" style="2"/>
   </cols>
   <sheetData>
@@ -11937,7 +11940,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="236.15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="248.6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -12120,7 +12123,7 @@
         <v>K.3.2 Systems Engineering. The technical and management efforts of directing and controlling a totally integrated engineering effort of a system or program. The following represent many, but not all, of the systems engineering efforts needed for a system or program. If required, one or more areas of effort (e.g., software systems engineering, cybersecurity, etc., may be identified at the next level below systems engineering. In those cases, the remaining totality of systems engineering efforts will be defined as “core systems engineering” at the level equal to the segregated items.</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="161.6" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
@@ -12140,7 +12143,7 @@
 d. Analyzing the system requirements allocated to the software, developing the software requirements, developing the software architecture, designing the software, implementing the software in the code, integrating the software components, and testing the software to verify that the software satisfies the specified requirements allocated to the software component of a system or subsystem.</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="211.3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -12168,7 +12171,7 @@
 l. Computer resources</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="211.3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -12196,7 +12199,7 @@
 l. Ensure the design of hardware, operating systems, and software applications adequately address cybersecurity requirements for the system</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
@@ -12240,7 +12243,7 @@
         <v>K.3.2.5 Other Systems Engineering 1...n (Specify). This element should be replaced with other systems engineering elements that cannot be categorized into one of the above elements or need to be separately identified due to high cost, high risk concerns within systems engineering. Each additional element is to be clearly identified and defined.</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1.4</v>
       </c>
@@ -12255,7 +12258,7 @@
         <v>K.3.3 Program Management. The business and administrative planning, organizing, directing, coordinating, controlling, and approval actions designated to accomplish overall program objectives, which are not associated with specific hardware elements and are not included in systems engineering. If required, one or more areas of effort (e.g., software program management, cybersecurity program management, etc.,) may be identified at the next level below program management. In those cases, the remaining totality of program management efforts will be defined as “core program management” at the level equal to the segregated items.</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -12280,7 +12283,7 @@
 i. Ensure the use of mature technology and handle the project’s complexity</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="149.15" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -12298,7 +12301,7 @@
 b. Planning and management of all the functions of logistics. Examples are: maintenance support planning and support facilities planning; other support requirements determination; support equipment requirements determination; supply support; packaging, handling, storage, and transportation; provisioning requirements determination and planning; training system requirements determination; computer resource determination; organizational, intermediate, and depot maintenance determination management; and data management</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -12318,7 +12321,7 @@
 d. Emerging tools and resources for organizational and platform security</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="161.6" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -12354,7 +12357,7 @@
         <v>K.3.3.5 Other Program Management 1...n (Specify). This element should be replaced with other program management elements that cannot be categorized into one of the above elements or need to be separately identified due to high cost or high risk concerns within program management. Each additional element is to be clearly identified and defined.</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="236.15" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1.5</v>
       </c>
@@ -12377,7 +12380,7 @@
 NOTE: These excluded efforts are to be included with the appropriate hardware or software elements.</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1.6</v>
       </c>
@@ -12413,7 +12416,7 @@
 g. For ordnance: test articles such as ballistic test rounds, inert measurement rounds, dummy rounds, launch separation rounds, etc.</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1.7</v>
       </c>
@@ -12433,7 +12436,7 @@
 d. Logistics testing efforts to evaluate the achievement of supportability goals and the adequacy of the support for the system (e.g., deliverable maintenance tools, test equipment, technical publications, maintenance instructions, personnel skills and training requirements, and software support facility/environment elements)</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="161.6" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>97</v>
       </c>
@@ -12457,7 +12460,7 @@
 h. Security, IT certification, and accreditation compliance services</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="111.9" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>99</v>
       </c>
@@ -12475,7 +12478,7 @@
 b. SIL Software (written to simulate the operating environment or written to operate the SIL)</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="136.75" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>101</v>
       </c>
@@ -12494,7 +12497,7 @@
 a. Operational and maintenance personnel, special fixtures, special instrumentation, etc., that are utilized and/or consumed in a single element of testing and that should be included under that element of testing</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>266</v>
       </c>
@@ -12513,7 +12516,7 @@
 a. Brick and mortar-type facilities identified as industrial facilities</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>267</v>
       </c>
@@ -12532,7 +12535,7 @@
 a. Overall planning, management, and task analysis functions inherent in the WBS element systems engineering/program management</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1.8</v>
       </c>
@@ -12579,7 +12582,7 @@
         <v>[No definition provided.]</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>268</v>
       </c>
@@ -12628,7 +12631,7 @@
         <v>[No definition provided.]</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>125</v>
       </c>
@@ -12663,7 +12666,7 @@
         <v>K.3.5.4 Training Software Release 1...n (Specify). Updated/upgraded software for training purposes delivered to the field during the acquisition phase.</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>273</v>
       </c>
@@ -12682,9 +12685,9 @@
 c. Transforming data into Government</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
-        <v>1.1000000000000001</v>
+    <row r="51" spans="1:4" ht="211.3" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>2277</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>103</v>
@@ -12702,7 +12705,7 @@
 d. Support Data. The data items designed to document support planning in accordance with functional categories</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>136</v>
       </c>
@@ -12719,7 +12722,7 @@
 a. All effort necessary to maintain documents</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="198.9" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>138</v>
       </c>
@@ -12738,7 +12741,7 @@
 c. Limited Rights. A limited rights agreement permits the Government to use proprietary technical data in whole or in part. It also means that the Government has to obtain the expressed permission of the party providing the technical data to release it, or disclose it, outside the Government.</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="223.75" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>1.1100000000000001</v>
       </c>
@@ -12760,7 +12763,7 @@
 b. Common support equipment, presently in the DoD inventory or commercially available, bought by the using command, not by the acquiring command</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>275</v>
       </c>
@@ -12838,7 +12841,7 @@
         <v>K.3.7.1.4 Test and Measurement Equipment (Other Major Subsystem 1...n (Specify)). This element captures the cost of other major subsystems (e.g., armament, weapons, vehicle subsystems, etc.) not captured above related test and measurement equipment. Identify the related WBS subassemblies associated with the other major subsystems. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>286</v>
       </c>
@@ -12915,7 +12918,7 @@
         <v>K.3.7.2.4 Support and Handling Equipment (Other Major Subsystem 1...n (Specify)). This element captures the cost of other major subsystems (e.g., armament, weapons, vehicle subsystems, etc.) not captured above related support and handling equipment. Identify the related WBS subassemblies associated with the other major subsystems. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>290</v>
       </c>
@@ -12933,7 +12936,7 @@
 b. All efforts required to assure the availability of this equipment to support the item</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>291</v>
       </c>
@@ -13011,7 +13014,7 @@
         <v>K.3.8.1.4 Test and Measurement Equipment (Other Major Subsystem 1...n (Specify)). This element captures the cost of other major subsystems (e.g., armament, weapons, vehicle subsystems, etc.) not captured above related test and measurement equipment. Identify the related WBS subassemblies associated with the other major subsystems. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>1338</v>
       </c>
@@ -13088,7 +13091,7 @@
         <v>K.3.8.2.4 Support and Handling Equipment (Other Major Subsystem 1...n (Specify)). This element captures the cost of other major subsystems (e.g., armament, weapons, vehicle subsystems, etc.) not captured above related support and handling equipment. Identify the related WBS subassemblies associated with the other major subsystems. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>1347</v>
       </c>
@@ -13107,7 +13110,7 @@
 c. Contractor support in relation to operational/site activation</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" ht="136.75" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>1349</v>
       </c>
@@ -13161,7 +13164,7 @@
 a. Construction of utilities, roads, and interconnecting cabling</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>1354</v>
       </c>
@@ -13178,7 +13181,7 @@
 a. Operations, support, and other special purpose facilities conversion necessary to achieve system operational status, e.g., launch. Where appropriate, specify by site, ship, or vehicle</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" ht="136.75" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>1356</v>
       </c>
@@ -13197,7 +13200,7 @@
 a. The development and production of the original prime mission product.</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>1358</v>
       </c>
@@ -13223,7 +13226,7 @@
 b. Contractor sustainment support for a specific sustainment task that a service would otherwise conduct itself.</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>1.1299999999999999</v>
       </c>
@@ -13289,7 +13292,7 @@
         <v>K.3.11.3 Maintenance (Industrial Facilities). The maintenance, preservation, and repair of industrial facilities and equipment.</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" ht="198.9" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>1.1399999999999999</v>
       </c>
@@ -13308,6 +13311,566 @@
 c. The combination of resources, processes, planning, procedures, design, considerations, methods, and all hardware to ensure that all system, equipment, and support items are preserved, packaged, handled, and transported properly, including environmental considerations, equipment preservation for short and long term storage, and transportability. This includes requirements such as special environmentally controlled, shock isolated containers for transport to and from repair facilities and ensuring proper Care of Supplies in Storage (COSIS) program requirements are followed.
 Excludes, for example:
 a. Development test spares and spares provided specifically for use during installation, assembly, and checkout on site</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>2</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="186.45" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="111.9" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>2.14</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>1728</v>
       </c>
     </row>
   </sheetData>
@@ -13316,621 +13879,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11A042B-C147-46B0-BBC4-61EB728E1341}">
-  <dimension ref="A1:D41"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="59.33203125" defaultRowHeight="12.45" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.9140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="137.4140625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="59.33203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>1810</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1417</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="161.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1363</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1364</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>1374</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>1376</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>1384</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1386</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>1387</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>1389</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1392</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>1393</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>2.11</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>2.12</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>2.13</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>1398</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>1406</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1407</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>2.14</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>2.15</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>1728</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA5FEB9-C293-4606-A2A7-2B8BD62BE2AA}">
   <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="201.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.9140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" style="2" customWidth="1"/>
     <col min="6" max="8" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.58203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="3"/>
+    <col min="10" max="10" width="8.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="161.6" x14ac:dyDescent="0.35">
@@ -14006,7 +13970,7 @@
       <c r="F3" s="1">
         <v>1.7</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>1.5</v>
       </c>
       <c r="H3" s="1">
@@ -14015,10 +13979,10 @@
       <c r="I3" s="1">
         <v>1.3</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>1.8</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>1.3</v>
       </c>
     </row>
@@ -14041,7 +14005,7 @@
       <c r="F4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -14050,10 +14014,10 @@
       <c r="I4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -14076,7 +14040,7 @@
       <c r="F5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -14085,10 +14049,10 @@
       <c r="I5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -14111,7 +14075,7 @@
       <c r="F6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -14120,14 +14084,14 @@
       <c r="I6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="397.75" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>1517</v>
       </c>
@@ -14146,7 +14110,7 @@
       <c r="F7" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>553</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -14155,10 +14119,10 @@
       <c r="I7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -14181,7 +14145,7 @@
       <c r="F8" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>554</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -14190,10 +14154,10 @@
       <c r="I8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -14216,7 +14180,7 @@
       <c r="F9" s="1">
         <v>1.8</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>1.6</v>
       </c>
       <c r="H9" s="1">
@@ -14225,10 +14189,10 @@
       <c r="I9" s="1">
         <v>1.4</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>1.9</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>1.4</v>
       </c>
     </row>
@@ -14251,7 +14215,7 @@
       <c r="F10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>80</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -14260,10 +14224,10 @@
       <c r="I10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -14286,7 +14250,7 @@
       <c r="F11" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>86</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -14295,10 +14259,10 @@
       <c r="I11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -14321,7 +14285,7 @@
       <c r="F12" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>92</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -14330,10 +14294,10 @@
       <c r="I12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -14356,7 +14320,7 @@
       <c r="F13" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>94</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -14365,10 +14329,10 @@
       <c r="I13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -14391,7 +14355,7 @@
       <c r="F14" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>265</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -14400,10 +14364,10 @@
       <c r="I14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -14426,7 +14390,7 @@
       <c r="F15" s="1">
         <v>1.8</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>556</v>
       </c>
       <c r="H15" s="1">
@@ -14435,10 +14399,10 @@
       <c r="I15" s="1">
         <v>1.5</v>
       </c>
-      <c r="J15" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="J15" s="4" t="s">
+        <v>2277</v>
+      </c>
+      <c r="K15" s="2">
         <v>1.5</v>
       </c>
       <c r="L15" s="1">
@@ -14464,7 +14428,7 @@
       <c r="F16" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>1.7</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -14473,10 +14437,10 @@
       <c r="I16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>1.6</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -14502,7 +14466,7 @@
       <c r="F17" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -14511,10 +14475,10 @@
       <c r="I17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>1.7</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -14540,7 +14504,7 @@
       <c r="F18" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>99</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -14549,10 +14513,10 @@
       <c r="I18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="2" t="s">
         <v>97</v>
       </c>
       <c r="L18" s="1" t="s">
@@ -14578,7 +14542,7 @@
       <c r="F19" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>101</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -14587,10 +14551,10 @@
       <c r="I19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="2" t="s">
         <v>99</v>
       </c>
       <c r="L19" s="1" t="s">
@@ -14616,7 +14580,7 @@
       <c r="F20" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>266</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -14625,10 +14589,10 @@
       <c r="I20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>101</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -14654,7 +14618,7 @@
       <c r="F21" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>267</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -14663,10 +14627,10 @@
       <c r="I21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="2" t="s">
         <v>1226</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="2" t="s">
         <v>266</v>
       </c>
       <c r="L21" s="1" t="s">
@@ -14689,10 +14653,10 @@
       <c r="E22" s="1">
         <v>1.9</v>
       </c>
-      <c r="F22" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="F22" s="3" t="s">
+        <v>2277</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>557</v>
       </c>
       <c r="H22" s="1">
@@ -14701,10 +14665,10 @@
       <c r="I22" s="1">
         <v>1.6</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>1.1100000000000001</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="2" t="s">
         <v>267</v>
       </c>
       <c r="L22" s="1">
@@ -14730,7 +14694,7 @@
       <c r="F23" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>1.8</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -14739,10 +14703,10 @@
       <c r="I23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>1.8</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -14768,7 +14732,7 @@
       <c r="F24" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="2" t="s">
         <v>104</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -14777,10 +14741,10 @@
       <c r="I24" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="2" t="s">
         <v>104</v>
       </c>
       <c r="L24" s="1" t="s">
@@ -14806,7 +14770,7 @@
       <c r="F25" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="2" t="s">
         <v>106</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -14815,10 +14779,10 @@
       <c r="I25" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="2" t="s">
         <v>114</v>
       </c>
       <c r="L25" s="1" t="s">
@@ -14844,7 +14808,7 @@
       <c r="F26" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="2" t="s">
         <v>108</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -14853,10 +14817,10 @@
       <c r="I26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="2" t="s">
         <v>268</v>
       </c>
       <c r="L26" s="1" t="s">
@@ -14882,7 +14846,7 @@
       <c r="F27" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -14891,10 +14855,10 @@
       <c r="I27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="2" t="s">
         <v>269</v>
       </c>
       <c r="L27" s="1" t="s">
@@ -14920,7 +14884,7 @@
       <c r="F28" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -14929,10 +14893,10 @@
       <c r="I28" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <v>1.9</v>
       </c>
       <c r="L28" s="1" t="s">
@@ -14958,7 +14922,7 @@
       <c r="F29" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -14967,10 +14931,10 @@
       <c r="I29" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="2" t="s">
         <v>125</v>
       </c>
       <c r="L29" s="1" t="s">
@@ -14996,7 +14960,7 @@
       <c r="F30" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="2" t="s">
         <v>268</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -15005,10 +14969,10 @@
       <c r="I30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="2" t="s">
         <v>1227</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="2" t="s">
         <v>130</v>
       </c>
       <c r="L30" s="1" t="s">
@@ -15028,13 +14992,13 @@
       <c r="D31" s="2" t="s">
         <v>1544</v>
       </c>
-      <c r="E31" s="1">
-        <v>1.1000000000000001</v>
+      <c r="E31" s="3" t="s">
+        <v>2277</v>
       </c>
       <c r="F31" s="1">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="2" t="s">
         <v>269</v>
       </c>
       <c r="H31" s="1">
@@ -15043,10 +15007,10 @@
       <c r="I31" s="1">
         <v>1.7</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="2" t="s">
         <v>273</v>
       </c>
       <c r="L31" s="1">
@@ -15072,7 +15036,7 @@
       <c r="F32" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="2">
         <v>1.9</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -15081,11 +15045,11 @@
       <c r="I32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="K32" s="3">
-        <v>1.1000000000000001</v>
+      <c r="K32" s="4" t="s">
+        <v>2277</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>104</v>
@@ -15110,7 +15074,7 @@
       <c r="F33" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="2" t="s">
         <v>125</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -15119,10 +15083,10 @@
       <c r="I33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="2" t="s">
         <v>136</v>
       </c>
       <c r="L33" s="1" t="s">
@@ -15148,7 +15112,7 @@
       <c r="F34" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="2" t="s">
         <v>130</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -15157,10 +15121,10 @@
       <c r="I34" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="2" t="s">
         <v>138</v>
       </c>
       <c r="L34" s="1" t="s">
@@ -15186,7 +15150,7 @@
       <c r="F35" s="1">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="2" t="s">
         <v>273</v>
       </c>
       <c r="H35" s="1">
@@ -15195,10 +15159,10 @@
       <c r="I35" s="1">
         <v>1.8</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <v>1.1299999999999999</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="2">
         <v>1.1100000000000001</v>
       </c>
       <c r="L35" s="1">
@@ -15224,8 +15188,8 @@
       <c r="F36" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G36" s="3">
-        <v>1.1000000000000001</v>
+      <c r="G36" s="4" t="s">
+        <v>2277</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>97</v>
@@ -15233,10 +15197,10 @@
       <c r="I36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="2" t="s">
         <v>275</v>
       </c>
       <c r="L36" s="1" t="s">
@@ -15262,7 +15226,7 @@
       <c r="F37" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="2" t="s">
         <v>136</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -15271,10 +15235,10 @@
       <c r="I37" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="2" t="s">
         <v>280</v>
       </c>
       <c r="L37" s="1" t="s">
@@ -15300,7 +15264,7 @@
       <c r="F38" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="2" t="s">
         <v>450</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -15309,10 +15273,10 @@
       <c r="I38" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="2">
         <v>1.1200000000000001</v>
       </c>
       <c r="L38" s="1" t="s">
@@ -15338,7 +15302,7 @@
       <c r="F39" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="2" t="s">
         <v>451</v>
       </c>
       <c r="H39" s="1" t="s">
@@ -15347,10 +15311,10 @@
       <c r="I39" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="K39" s="2" t="s">
         <v>148</v>
       </c>
       <c r="L39" s="1" t="s">
@@ -15376,7 +15340,7 @@
       <c r="F40" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -15385,10 +15349,10 @@
       <c r="I40" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="K40" s="2" t="s">
         <v>285</v>
       </c>
       <c r="L40" s="1" t="s">
@@ -15414,7 +15378,7 @@
       <c r="F41" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="2" t="s">
         <v>560</v>
       </c>
       <c r="H41" s="1" t="s">
@@ -15423,10 +15387,10 @@
       <c r="I41" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="K41" s="2" t="s">
         <v>286</v>
       </c>
       <c r="L41" s="1" t="s">
@@ -15452,7 +15416,7 @@
       <c r="F42" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="2" t="s">
         <v>138</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -15461,10 +15425,10 @@
       <c r="I42" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="2" t="s">
         <v>287</v>
       </c>
       <c r="L42" s="1" t="s">
@@ -15490,7 +15454,7 @@
       <c r="F43" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="2" t="s">
         <v>452</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -15499,10 +15463,10 @@
       <c r="I43" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="2" t="s">
         <v>288</v>
       </c>
       <c r="L43" s="1" t="s">
@@ -15528,7 +15492,7 @@
       <c r="F44" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="2" t="s">
         <v>453</v>
       </c>
       <c r="H44" s="1" t="s">
@@ -15537,10 +15501,10 @@
       <c r="I44" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="2" t="s">
         <v>150</v>
       </c>
       <c r="L44" s="1" t="s">
@@ -15566,7 +15530,7 @@
       <c r="F45" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="2" t="s">
         <v>562</v>
       </c>
       <c r="H45" s="1" t="s">
@@ -15575,10 +15539,10 @@
       <c r="I45" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="2" t="s">
         <v>289</v>
       </c>
       <c r="L45" s="1" t="s">
@@ -15604,7 +15568,7 @@
       <c r="F46" s="1">
         <v>1.1299999999999999</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="2" t="s">
         <v>563</v>
       </c>
       <c r="H46" s="1">
@@ -15613,14 +15577,14 @@
       <c r="I46" s="1">
         <v>1.9</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="2">
         <v>1.1399999999999999</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="K46" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="L46" s="1">
-        <v>1.1000000000000001</v>
+      <c r="L46" s="3" t="s">
+        <v>2277</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="87" x14ac:dyDescent="0.35">
@@ -15642,7 +15606,7 @@
       <c r="F47" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="2">
         <v>1.1100000000000001</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -15651,10 +15615,10 @@
       <c r="I47" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="K47" s="2" t="s">
         <v>291</v>
       </c>
       <c r="L47" s="1" t="s">
@@ -15680,7 +15644,7 @@
       <c r="F48" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="2" t="s">
         <v>275</v>
       </c>
       <c r="H48" s="1" t="s">
@@ -15689,10 +15653,10 @@
       <c r="I48" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="2" t="s">
         <v>1229</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="K48" s="2" t="s">
         <v>292</v>
       </c>
       <c r="L48" s="1" t="s">
@@ -15718,7 +15682,7 @@
       <c r="F49" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="2" t="s">
         <v>276</v>
       </c>
       <c r="H49" s="1" t="s">
@@ -15727,10 +15691,10 @@
       <c r="I49" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="2" t="s">
         <v>1230</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="2" t="s">
         <v>152</v>
       </c>
       <c r="L49" s="1" t="s">
@@ -15756,7 +15720,7 @@
       <c r="F50" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="2" t="s">
         <v>277</v>
       </c>
       <c r="H50" s="1" t="s">
@@ -15765,10 +15729,10 @@
       <c r="I50" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J50" s="2" t="s">
         <v>1231</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="K50" s="2" t="s">
         <v>1334</v>
       </c>
       <c r="L50" s="1" t="s">
@@ -15794,7 +15758,7 @@
       <c r="F51" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="2" t="s">
         <v>278</v>
       </c>
       <c r="H51" s="1" t="s">
@@ -15803,10 +15767,10 @@
       <c r="I51" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" s="2" t="s">
         <v>1232</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="K51" s="2" t="s">
         <v>1336</v>
       </c>
       <c r="L51" s="1" t="s">
@@ -15832,7 +15796,7 @@
       <c r="F52" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="2" t="s">
         <v>279</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -15841,10 +15805,10 @@
       <c r="I52" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="J52" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K52" s="2" t="s">
         <v>1338</v>
       </c>
       <c r="L52" s="1" t="s">
@@ -15870,7 +15834,7 @@
       <c r="F53" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="2" t="s">
         <v>280</v>
       </c>
       <c r="H53" s="1" t="s">
@@ -15879,10 +15843,10 @@
       <c r="I53" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J53" s="2" t="s">
         <v>1233</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="K53" s="2" t="s">
         <v>565</v>
       </c>
       <c r="L53" s="1" t="s">
@@ -15908,7 +15872,7 @@
       <c r="F54" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" s="2" t="s">
         <v>281</v>
       </c>
       <c r="H54" s="1" t="s">
@@ -15917,10 +15881,10 @@
       <c r="I54" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="J54" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="K54" s="2" t="s">
         <v>1341</v>
       </c>
       <c r="L54" s="1" t="s">
@@ -15946,7 +15910,7 @@
       <c r="F55" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G55" s="2" t="s">
         <v>282</v>
       </c>
       <c r="H55" s="1" t="s">
@@ -15955,10 +15919,10 @@
       <c r="I55" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="J55" s="2" t="s">
         <v>1235</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="K55" s="2" t="s">
         <v>1343</v>
       </c>
       <c r="L55" s="1" t="s">
@@ -15984,7 +15948,7 @@
       <c r="F56" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="2" t="s">
         <v>283</v>
       </c>
       <c r="H56" s="1" t="s">
@@ -15993,10 +15957,10 @@
       <c r="I56" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="J56" s="2" t="s">
         <v>1236</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="K56" s="2" t="s">
         <v>1345</v>
       </c>
       <c r="L56" s="1" t="s">
@@ -16022,19 +15986,19 @@
       <c r="F57" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" s="2" t="s">
         <v>284</v>
       </c>
       <c r="H57" s="1">
         <v>1.9</v>
       </c>
-      <c r="I57" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="I57" s="3" t="s">
+        <v>2277</v>
+      </c>
+      <c r="J57" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="K57" s="2" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -16057,7 +16021,7 @@
       <c r="F58" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="2">
         <v>1.1200000000000001</v>
       </c>
       <c r="H58" s="1" t="s">
@@ -16066,10 +16030,10 @@
       <c r="I58" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="2" t="s">
         <v>1349</v>
       </c>
     </row>
@@ -16092,7 +16056,7 @@
       <c r="F59" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G59" s="2" t="s">
         <v>148</v>
       </c>
       <c r="H59" s="1" t="s">
@@ -16101,10 +16065,10 @@
       <c r="I59" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J59" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="K59" s="2" t="s">
         <v>566</v>
       </c>
     </row>
@@ -16127,7 +16091,7 @@
       <c r="F60" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G60" s="2" t="s">
         <v>150</v>
       </c>
       <c r="H60" s="1" t="s">
@@ -16136,10 +16100,10 @@
       <c r="I60" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="J60" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="K60" s="3" t="s">
+      <c r="K60" s="2" t="s">
         <v>1352</v>
       </c>
     </row>
@@ -16162,7 +16126,7 @@
       <c r="F61" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="2" t="s">
         <v>152</v>
       </c>
       <c r="H61" s="1" t="s">
@@ -16171,10 +16135,10 @@
       <c r="I61" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="J61" s="2" t="s">
         <v>1237</v>
       </c>
-      <c r="K61" s="3" t="s">
+      <c r="K61" s="2" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -16197,7 +16161,7 @@
       <c r="F62" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G62" s="2" t="s">
         <v>565</v>
       </c>
       <c r="H62" s="1" t="s">
@@ -16206,10 +16170,10 @@
       <c r="I62" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="J62" s="2" t="s">
         <v>1238</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="K62" s="2" t="s">
         <v>1356</v>
       </c>
     </row>
@@ -16232,19 +16196,19 @@
       <c r="F63" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="H63" s="1">
-        <v>1.1000000000000001</v>
+      <c r="H63" s="3" t="s">
+        <v>2277</v>
       </c>
       <c r="I63" s="1">
         <v>1.1100000000000001</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J63" s="2">
         <v>1.1599999999999999</v>
       </c>
-      <c r="K63" s="3" t="s">
+      <c r="K63" s="2" t="s">
         <v>1358</v>
       </c>
     </row>
@@ -16267,7 +16231,7 @@
       <c r="F64" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G64" s="2" t="s">
         <v>568</v>
       </c>
       <c r="H64" s="1">
@@ -16276,10 +16240,10 @@
       <c r="I64" s="1">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64" s="2">
         <v>1.17</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K64" s="2">
         <v>1.1299999999999999</v>
       </c>
       <c r="L64" s="1">
@@ -16305,7 +16269,7 @@
       <c r="F65" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G65" s="2" t="s">
         <v>570</v>
       </c>
       <c r="H65" s="1" t="s">
@@ -16314,10 +16278,10 @@
       <c r="I65" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="J65" s="2" t="s">
         <v>1239</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="K65" s="2" t="s">
         <v>293</v>
       </c>
       <c r="L65" s="1" t="s">
@@ -16343,7 +16307,7 @@
       <c r="F66" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G66" s="2" t="s">
         <v>572</v>
       </c>
       <c r="H66" s="1" t="s">
@@ -16352,10 +16316,10 @@
       <c r="I66" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="J66" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="K66" s="2" t="s">
         <v>295</v>
       </c>
       <c r="L66" s="1" t="s">
@@ -16381,7 +16345,7 @@
       <c r="F67" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67" s="2">
         <v>1.1299999999999999</v>
       </c>
       <c r="H67" s="1" t="s">
@@ -16390,10 +16354,10 @@
       <c r="I67" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J67" s="3" t="s">
+      <c r="J67" s="2" t="s">
         <v>1241</v>
       </c>
-      <c r="K67" s="3" t="s">
+      <c r="K67" s="2" t="s">
         <v>296</v>
       </c>
       <c r="L67" s="1" t="s">
@@ -16419,7 +16383,7 @@
       <c r="F68" s="1">
         <v>1.17</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="2">
         <v>1.1399999999999999</v>
       </c>
       <c r="H68" s="1">
@@ -16428,10 +16392,10 @@
       <c r="I68" s="1">
         <v>1.1299999999999999</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J68" s="2">
         <v>1.18</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K68" s="2">
         <v>1.1399999999999999</v>
       </c>
       <c r="L68" s="1">
@@ -16439,7 +16403,9 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="24.9" x14ac:dyDescent="0.35">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B69" s="1" t="s">
         <v>1947</v>
       </c>
@@ -16451,7 +16417,9 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="A70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B70" s="1" t="s">
         <v>1949</v>
       </c>
@@ -16463,7 +16431,9 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="409.6" x14ac:dyDescent="0.35">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B71" s="1" t="s">
         <v>1950</v>
       </c>
@@ -16475,7 +16445,9 @@
       </c>
     </row>
     <row r="72" spans="1:12" ht="74.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A72" s="1"/>
+      <c r="A72" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B72" s="1" t="s">
         <v>1975</v>
       </c>
@@ -16487,7 +16459,9 @@
       </c>
     </row>
     <row r="73" spans="1:12" ht="124.3" x14ac:dyDescent="0.35">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B73" s="1" t="s">
         <v>1974</v>
       </c>
@@ -16504,7 +16478,9 @@
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:12" ht="273.45" x14ac:dyDescent="0.35">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B74" s="1" t="s">
         <v>1973</v>
       </c>
@@ -16521,7 +16497,9 @@
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:12" ht="261" x14ac:dyDescent="0.35">
-      <c r="A75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B75" s="1" t="s">
         <v>1972</v>
       </c>
@@ -16538,7 +16516,9 @@
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:12" ht="211.3" x14ac:dyDescent="0.35">
-      <c r="A76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B76" s="1" t="s">
         <v>1971</v>
       </c>
@@ -16555,7 +16535,9 @@
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:12" ht="372.9" x14ac:dyDescent="0.35">
-      <c r="A77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B77" s="1" t="s">
         <v>1970</v>
       </c>
@@ -16572,7 +16554,9 @@
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:12" ht="298.3" x14ac:dyDescent="0.35">
-      <c r="A78" s="1"/>
+      <c r="A78" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B78" s="1" t="s">
         <v>1969</v>
       </c>
@@ -16589,7 +16573,9 @@
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:12" ht="385.3" x14ac:dyDescent="0.35">
-      <c r="A79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B79" s="1" t="s">
         <v>1968</v>
       </c>
@@ -16606,7 +16592,9 @@
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:12" ht="273.45" x14ac:dyDescent="0.35">
-      <c r="A80" s="1"/>
+      <c r="A80" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B80" s="1" t="s">
         <v>1967</v>
       </c>
@@ -16623,7 +16611,9 @@
       <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9" ht="360.45" x14ac:dyDescent="0.35">
-      <c r="A81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B81" s="1" t="s">
         <v>1966</v>
       </c>
@@ -16640,7 +16630,9 @@
       <c r="I81" s="1"/>
     </row>
     <row r="82" spans="1:9" ht="348" x14ac:dyDescent="0.35">
-      <c r="A82" s="1"/>
+      <c r="A82" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B82" s="1" t="s">
         <v>1965</v>
       </c>
@@ -16657,7 +16649,9 @@
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9" ht="236.15" x14ac:dyDescent="0.35">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B83" s="1" t="s">
         <v>1964</v>
       </c>
@@ -16674,7 +16668,9 @@
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9" ht="174" x14ac:dyDescent="0.35">
-      <c r="A84" s="1"/>
+      <c r="A84" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B84" s="1" t="s">
         <v>1963</v>
       </c>
@@ -16691,7 +16687,9 @@
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9" ht="261" x14ac:dyDescent="0.35">
-      <c r="A85" s="1"/>
+      <c r="A85" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B85" s="1" t="s">
         <v>1952</v>
       </c>
@@ -16708,7 +16706,9 @@
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9" ht="360.45" x14ac:dyDescent="0.35">
-      <c r="A86" s="1"/>
+      <c r="A86" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B86" s="1" t="s">
         <v>1962</v>
       </c>
@@ -16725,7 +16725,9 @@
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9" ht="335.6" x14ac:dyDescent="0.35">
-      <c r="A87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B87" s="1" t="s">
         <v>1961</v>
       </c>
@@ -16742,7 +16744,9 @@
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9" ht="385.3" x14ac:dyDescent="0.35">
-      <c r="A88" s="1"/>
+      <c r="A88" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B88" s="1" t="s">
         <v>1960</v>
       </c>
@@ -16759,7 +16763,9 @@
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9" ht="335.6" x14ac:dyDescent="0.35">
-      <c r="A89" s="1"/>
+      <c r="A89" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B89" s="1" t="s">
         <v>1959</v>
       </c>
@@ -16776,7 +16782,9 @@
       <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9" ht="223.75" x14ac:dyDescent="0.35">
-      <c r="A90" s="1"/>
+      <c r="A90" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B90" s="1" t="s">
         <v>1958</v>
       </c>
@@ -16793,7 +16801,9 @@
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9" ht="409.6" x14ac:dyDescent="0.35">
-      <c r="A91" s="1"/>
+      <c r="A91" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B91" s="1" t="s">
         <v>1957</v>
       </c>
@@ -16810,7 +16820,9 @@
       <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9" ht="37.299999999999997" x14ac:dyDescent="0.35">
-      <c r="A92" s="1"/>
+      <c r="A92" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B92" s="1" t="s">
         <v>1956</v>
       </c>
@@ -16827,7 +16839,9 @@
       <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9" ht="248.6" x14ac:dyDescent="0.35">
-      <c r="A93" s="1"/>
+      <c r="A93" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B93" s="1" t="s">
         <v>1955</v>
       </c>
@@ -16844,7 +16858,9 @@
       <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9" ht="37.299999999999997" x14ac:dyDescent="0.35">
-      <c r="A94" s="1"/>
+      <c r="A94" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B94" s="1" t="s">
         <v>1954</v>
       </c>
@@ -16861,7 +16877,9 @@
       <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9" ht="409.6" x14ac:dyDescent="0.35">
-      <c r="A95" s="1"/>
+      <c r="A95" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B95" s="1" t="s">
         <v>1950</v>
       </c>
@@ -16878,7 +16896,9 @@
       <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9" ht="261" x14ac:dyDescent="0.35">
-      <c r="A96" s="1"/>
+      <c r="A96" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B96" s="1" t="s">
         <v>1951</v>
       </c>
@@ -16895,7 +16915,9 @@
       <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9" ht="273.45" x14ac:dyDescent="0.35">
-      <c r="A97" s="1"/>
+      <c r="A97" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B97" s="1" t="s">
         <v>1952</v>
       </c>
@@ -16912,7 +16934,9 @@
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9" ht="24.9" x14ac:dyDescent="0.35">
-      <c r="A98" s="1"/>
+      <c r="A98" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B98" s="1" t="s">
         <v>2000</v>
       </c>
@@ -16929,7 +16953,9 @@
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" ht="24.9" x14ac:dyDescent="0.35">
-      <c r="A99" s="1"/>
+      <c r="A99" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B99" s="1" t="s">
         <v>1999</v>
       </c>
@@ -16946,7 +16972,9 @@
       <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A100" s="1"/>
+      <c r="A100" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B100" s="1" t="s">
         <v>1998</v>
       </c>
@@ -16962,8 +16990,10 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9" ht="149.15" x14ac:dyDescent="0.35">
-      <c r="A101" s="1"/>
+    <row r="101" spans="1:9" ht="161.6" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B101" s="1" t="s">
         <v>1997</v>
       </c>
@@ -16980,7 +17010,9 @@
       <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A102" s="1"/>
+      <c r="A102" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B102" s="2" t="s">
         <v>1996</v>
       </c>
@@ -16997,7 +17029,9 @@
       <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" ht="74.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A103" s="1"/>
+      <c r="A103" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B103" s="1" t="s">
         <v>1996</v>
       </c>
@@ -17014,7 +17048,9 @@
       <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" ht="49.75" x14ac:dyDescent="0.35">
-      <c r="A104" s="1"/>
+      <c r="A104" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B104" s="1" t="s">
         <v>1995</v>
       </c>
@@ -17031,7 +17067,9 @@
       <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" ht="161.6" x14ac:dyDescent="0.35">
-      <c r="A105" s="1"/>
+      <c r="A105" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B105" s="1" t="s">
         <v>1994</v>
       </c>
@@ -17048,7 +17086,9 @@
       <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9" ht="62.15" x14ac:dyDescent="0.35">
-      <c r="A106" s="1"/>
+      <c r="A106" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B106" s="1" t="s">
         <v>1993</v>
       </c>
@@ -17065,7 +17105,9 @@
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" ht="24.9" x14ac:dyDescent="0.35">
-      <c r="A107" s="1"/>
+      <c r="A107" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B107" s="1" t="s">
         <v>1992</v>
       </c>
@@ -17082,7 +17124,9 @@
       <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" ht="24.9" x14ac:dyDescent="0.35">
-      <c r="A108" s="1"/>
+      <c r="A108" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B108" s="1" t="s">
         <v>1991</v>
       </c>
@@ -17099,7 +17143,9 @@
       <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9" ht="24.9" x14ac:dyDescent="0.35">
-      <c r="A109" s="1"/>
+      <c r="A109" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B109" s="1" t="s">
         <v>1990</v>
       </c>
@@ -17116,7 +17162,9 @@
       <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B110" s="1" t="s">
         <v>1989</v>
       </c>
@@ -17133,7 +17181,9 @@
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A111" s="1"/>
+      <c r="A111" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B111" s="1" t="s">
         <v>1949</v>
       </c>
@@ -17150,7 +17200,9 @@
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" ht="372.9" x14ac:dyDescent="0.35">
-      <c r="A112" s="1"/>
+      <c r="A112" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B112" s="1" t="s">
         <v>1950</v>
       </c>
@@ -17167,7 +17219,9 @@
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9" ht="24.9" x14ac:dyDescent="0.35">
-      <c r="A113" s="1"/>
+      <c r="A113" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B113" s="1" t="s">
         <v>2026</v>
       </c>
@@ -17184,7 +17238,9 @@
       <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9" ht="37.299999999999997" x14ac:dyDescent="0.35">
-      <c r="A114" s="1"/>
+      <c r="A114" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B114" s="1" t="s">
         <v>2025</v>
       </c>
@@ -17201,7 +17257,9 @@
       <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9" ht="24.9" x14ac:dyDescent="0.35">
-      <c r="A115" s="1"/>
+      <c r="A115" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B115" s="1" t="s">
         <v>2024</v>
       </c>
@@ -17218,7 +17276,9 @@
       <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9" ht="223.75" x14ac:dyDescent="0.35">
-      <c r="A116" s="1"/>
+      <c r="A116" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B116" s="2" t="s">
         <v>1967</v>
       </c>
@@ -17235,6 +17295,9 @@
       <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9" ht="236.15" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B117" s="2" t="s">
         <v>1952</v>
       </c>
@@ -17246,6 +17309,9 @@
       </c>
     </row>
     <row r="118" spans="1:9" ht="24.9" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B118" s="2" t="s">
         <v>2023</v>
       </c>
@@ -17257,6 +17323,9 @@
       </c>
     </row>
     <row r="119" spans="1:9" ht="236.15" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B119" s="2" t="s">
         <v>1955</v>
       </c>
@@ -17268,6 +17337,9 @@
       </c>
     </row>
     <row r="120" spans="1:9" ht="24.9" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B120" s="2" t="s">
         <v>2022</v>
       </c>
@@ -17279,6 +17351,9 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="49.75" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B121" s="2" t="s">
         <v>2021</v>
       </c>
@@ -17290,6 +17365,9 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="24.9" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B122" s="2" t="s">
         <v>330</v>
       </c>
@@ -17301,6 +17379,9 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="24.9" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B123" s="2" t="s">
         <v>2020</v>
       </c>
@@ -17312,6 +17393,9 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="24.9" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B124" s="2" t="s">
         <v>2019</v>
       </c>
@@ -17323,6 +17407,9 @@
       </c>
     </row>
     <row r="125" spans="1:9" ht="24.9" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B125" s="2" t="s">
         <v>2018</v>
       </c>
@@ -17334,6 +17421,9 @@
       </c>
     </row>
     <row r="126" spans="1:9" ht="37.299999999999997" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>1517</v>
+      </c>
       <c r="B126" s="2" t="s">
         <v>2017</v>
       </c>
@@ -17354,16 +17444,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C64C9B5-A53F-4749-ABD2-57E814181CE9}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.33203125" defaultRowHeight="12.45" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="207" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.9140625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="59.33203125" style="2"/>
   </cols>
   <sheetData>
@@ -18519,8 +18607,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
-        <v>1.1000000000000001</v>
+      <c r="A67" s="3" t="s">
+        <v>2277</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>327</v>
@@ -18749,16 +18837,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E796AE0D-A28D-43C6-840A-AFDA45C544D5}">
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.1640625" defaultRowHeight="12.45" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="109.58203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.9140625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="12.1640625" style="2"/>
   </cols>
   <sheetData>
@@ -18776,7 +18862,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -18804,7 +18890,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1.2</v>
       </c>
@@ -18818,7 +18904,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>158</v>
       </c>
@@ -18832,7 +18918,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="136.75" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>160</v>
       </c>
@@ -18846,7 +18932,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>162</v>
       </c>
@@ -18916,7 +19002,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>173</v>
       </c>
@@ -18930,7 +19016,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>347</v>
       </c>
@@ -18944,7 +19030,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="248.6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>349</v>
       </c>
@@ -18972,7 +19058,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>353</v>
       </c>
@@ -18986,7 +19072,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="111.9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="136.75" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>355</v>
       </c>
@@ -19028,7 +19114,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>361</v>
       </c>
@@ -19070,7 +19156,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>177</v>
       </c>
@@ -19126,7 +19212,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>185</v>
       </c>
@@ -19140,7 +19226,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>187</v>
       </c>
@@ -19154,7 +19240,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>203</v>
       </c>
@@ -19168,7 +19254,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>205</v>
       </c>
@@ -19196,7 +19282,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>209</v>
       </c>
@@ -19224,7 +19310,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>213</v>
       </c>
@@ -19238,7 +19324,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>214</v>
       </c>
@@ -19252,7 +19338,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>232</v>
       </c>
@@ -19266,7 +19352,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>380</v>
       </c>
@@ -19294,7 +19380,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>384</v>
       </c>
@@ -19308,7 +19394,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>386</v>
       </c>
@@ -19322,7 +19408,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="111.9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>234</v>
       </c>
@@ -19336,7 +19422,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>389</v>
       </c>
@@ -19434,7 +19520,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>236</v>
       </c>
@@ -19448,7 +19534,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>402</v>
       </c>
@@ -19504,7 +19590,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>410</v>
       </c>
@@ -19518,7 +19604,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>412</v>
       </c>
@@ -19532,7 +19618,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>238</v>
       </c>
@@ -19546,7 +19632,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>415</v>
       </c>
@@ -19602,7 +19688,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>422</v>
       </c>
@@ -19616,7 +19702,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>423</v>
       </c>
@@ -19630,7 +19716,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>240</v>
       </c>
@@ -19658,7 +19744,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>428</v>
       </c>
@@ -19672,7 +19758,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>429</v>
       </c>
@@ -19700,7 +19786,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>45</v>
       </c>
@@ -19728,7 +19814,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>49</v>
       </c>
@@ -19742,7 +19828,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>51</v>
       </c>
@@ -19756,7 +19842,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>1.4</v>
       </c>
@@ -19770,7 +19856,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>56</v>
       </c>
@@ -19784,7 +19870,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="111.9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>58</v>
       </c>
@@ -19798,7 +19884,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>60</v>
       </c>
@@ -19812,7 +19898,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="111.9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" ht="149.15" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>62</v>
       </c>
@@ -19854,7 +19940,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>260</v>
       </c>
@@ -19868,7 +19954,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>262</v>
       </c>
@@ -19882,7 +19968,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>442</v>
       </c>
@@ -19896,7 +19982,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>444</v>
       </c>
@@ -19910,7 +19996,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="111.9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" ht="136.75" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>1.5</v>
       </c>
@@ -19938,7 +20024,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>1.7</v>
       </c>
@@ -19953,7 +20039,7 @@
         <v>K.3.2 Systems Engineering. The technical and management efforts of directing and controlling a totally integrated engineering effort of a system or program. The following represent many, but not all, of the systems engineering efforts needed for a system or program. If required, one or more areas of effort (e.g., software systems engineering, cybersecurity, etc., may be identified at the next level below systems engineering. In those cases, the remaining totality of systems engineering efforts will be defined as “core systems engineering” at the level equal to the segregated items.</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="111.9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" ht="161.6" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>97</v>
       </c>
@@ -19973,7 +20059,7 @@
 d. Analyzing the system requirements allocated to the software, developing the software requirements, developing the software architecture, designing the software, implementing the software in the code, integrating the software components, and testing the software to verify that the software satisfies the specified requirements allocated to the software component of a system or subsystem.</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="198.9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" ht="211.3" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
@@ -20001,7 +20087,7 @@
 l. Computer resources</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="186.45" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" ht="211.3" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>101</v>
       </c>
@@ -20029,7 +20115,7 @@
 l. Ensure the design of hardware, operating systems, and software applications adequately address cybersecurity requirements for the system</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="397.75" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>266</v>
       </c>
@@ -20073,7 +20159,7 @@
         <v>K.3.2.5 Other Systems Engineering 1...n (Specify). This element should be replaced with other systems engineering elements that cannot be categorized into one of the above elements or need to be separately identified due to high cost, high risk concerns within systems engineering. Each additional element is to be clearly identified and defined.</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>1.8</v>
       </c>
@@ -20088,7 +20174,7 @@
         <v>K.3.3 Program Management. The business and administrative planning, organizing, directing, coordinating, controlling, and approval actions designated to accomplish overall program objectives, which are not associated with specific hardware elements and are not included in systems engineering. If required, one or more areas of effort (e.g., software program management, cybersecurity program management, etc.,) may be identified at the next level below program management. In those cases, the remaining totality of program management efforts will be defined as “core program management” at the level equal to the segregated items.</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="161.6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
@@ -20113,7 +20199,7 @@
 i. Ensure the use of mature technology and handle the project’s complexity</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" ht="149.15" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>114</v>
       </c>
@@ -20131,7 +20217,7 @@
 b. Planning and management of all the functions of logistics. Examples are: maintenance support planning and support facilities planning; other support requirements determination; support equipment requirements determination; supply support; packaging, handling, storage, and transportation; provisioning requirements determination and planning; training system requirements determination; computer resource determination; organizational, intermediate, and depot maintenance determination management; and data management</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>268</v>
       </c>
@@ -20151,7 +20237,7 @@
 d. Emerging tools and resources for organizational and platform security</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" ht="161.6" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>269</v>
       </c>
@@ -20187,7 +20273,7 @@
         <v>K.3.3.5 Other Program Management 1...n (Specify). This element should be replaced with other program management elements that cannot be categorized into one of the above elements or need to be separately identified due to high cost or high risk concerns within program management. Each additional element is to be clearly identified and defined.</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="186.45" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" ht="236.15" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>1.8</v>
       </c>
@@ -20210,7 +20296,7 @@
 NOTE: These excluded efforts are to be included with the appropriate hardware or software elements.</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="372.9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>125</v>
       </c>
@@ -20246,7 +20332,7 @@
 g. For ordnance: test articles such as ballistic test rounds, inert measurement rounds, dummy rounds, launch separation rounds, etc.</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>130</v>
       </c>
@@ -20266,7 +20352,7 @@
 d. Logistics testing efforts to evaluate the achievement of supportability goals and the adequacy of the support for the system (e.g., deliverable maintenance tools, test equipment, technical publications, maintenance instructions, personnel skills and training requirements, and software support facility/environment elements)</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="149.15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" ht="161.6" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>273</v>
       </c>
@@ -20290,7 +20376,7 @@
 h. Security, IT certification, and accreditation compliance services</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" ht="111.9" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>274</v>
       </c>
@@ -20308,7 +20394,7 @@
 b. SIL Software (written to simulate the operating environment or written to operate the SIL)</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="111.9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" ht="136.75" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>448</v>
       </c>
@@ -20327,7 +20413,7 @@
 a. Operational and maintenance personnel, special fixtures, special instrumentation, etc., that are utilized and/or consumed in a single element of testing and that should be included under that element of testing</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>449</v>
       </c>
@@ -20346,9 +20432,9 @@
 a. Brick and mortar-type facilities identified as industrial facilities</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
-        <v>1.1000000000000001</v>
+    <row r="104" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
+      <c r="A104" s="3" t="s">
+        <v>2277</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>79</v>
@@ -20365,7 +20451,7 @@
 a. Overall planning, management, and task analysis functions inherent in the WBS element systems engineering/program management</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>136</v>
       </c>
@@ -20412,7 +20498,7 @@
         <v>[No definition provided.]</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>138</v>
       </c>
@@ -20515,7 +20601,7 @@
 c. Transforming data into Government</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="136.75" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" ht="211.3" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>275</v>
       </c>
@@ -20535,7 +20621,7 @@
 d. Support Data. The data items designed to document support planning in accordance with functional categories</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>280</v>
       </c>
@@ -20552,7 +20638,7 @@
 a. All effort necessary to maintain documents</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" ht="198.9" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>454</v>
       </c>
@@ -20571,7 +20657,7 @@
 c. Limited Rights. A limited rights agreement permits the Government to use proprietary technical data in whole or in part. It also means that the Government has to obtain the expressed permission of the party providing the technical data to release it, or disclose it, outside the Government.</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="149.15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" ht="223.75" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>1.1200000000000001</v>
       </c>
@@ -20593,7 +20679,7 @@
 b. Common support equipment, presently in the DoD inventory or commercially available, bought by the using command, not by the acquiring command</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>148</v>
       </c>
@@ -20656,7 +20742,7 @@
         <v>K.3.7.1.3 Test and Measurement Equipment (Electronics/Avionics). This element captures the cost of the electronics/avionics related test and measurement equipment. Identify the related WBS subassemblies associated with electronics/avionics. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>288</v>
       </c>
@@ -20671,7 +20757,7 @@
         <v>K.3.7.1.4 Test and Measurement Equipment (Other Major Subsystem 1...n (Specify)). This element captures the cost of other major subsystems (e.g., armament, weapons, vehicle subsystems, etc.) not captured above related test and measurement equipment. Identify the related WBS subassemblies associated with the other major subsystems. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>150</v>
       </c>
@@ -20733,7 +20819,7 @@
         <v>K.3.7.2.3 Support and Handling Equipment (Electronics/Avionics). This element captures the cost of the electronics/avionics related support and handling equipment. Identify the related WBS subassemblies associated with electronics/avionics. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>292</v>
       </c>
@@ -20766,7 +20852,7 @@
 b. All efforts required to assure the availability of this equipment to support the item</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>293</v>
       </c>
@@ -20829,7 +20915,7 @@
         <v>K.3.8.1.3 Test and Measurement Equipment (Electronics/Avionics). This element captures the cost of the electronics/avionics related test and measurement equipment. Identify the related WBS subassemblies associated with electronics/avionics. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>458</v>
       </c>
@@ -20844,7 +20930,7 @@
         <v>K.3.8.1.4 Test and Measurement Equipment (Other Major Subsystem 1...n (Specify)). This element captures the cost of other major subsystems (e.g., armament, weapons, vehicle subsystems, etc.) not captured above related test and measurement equipment. Identify the related WBS subassemblies associated with the other major subsystems. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>295</v>
       </c>
@@ -20906,7 +20992,7 @@
         <v>K.3.8.2.3 Support and Handling Equipment (Electronics/Avionics). This element captures the cost of the electronics/avionics related support and handling equipment. Identify the related WBS subassemblies associated with electronics/avionics. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>462</v>
       </c>
@@ -20921,7 +21007,7 @@
         <v>K.3.8.2.4 Support and Handling Equipment (Other Major Subsystem 1...n (Specify)). This element captures the cost of other major subsystems (e.g., armament, weapons, vehicle subsystems, etc.) not captured above related support and handling equipment. Identify the related WBS subassemblies associated with the other major subsystems. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>1.1399999999999999</v>
       </c>
@@ -20940,7 +21026,7 @@
 c. Contractor support in relation to operational/site activation</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" ht="136.75" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>463</v>
       </c>
@@ -20977,7 +21063,7 @@
 a. Repair of reparables, standby services, and final turnover</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>465</v>
       </c>
@@ -20994,7 +21080,7 @@
 a. Construction of utilities, roads, and interconnecting cabling</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>466</v>
       </c>
@@ -21011,7 +21097,7 @@
 a. Operations, support, and other special purpose facilities conversion necessary to achieve system operational status, e.g., launch. Where appropriate, specify by site, ship, or vehicle</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" ht="136.75" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>467</v>
       </c>
@@ -21030,7 +21116,7 @@
 a. The development and production of the original prime mission product.</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="198.9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>1.1499999999999999</v>
       </c>
@@ -21056,7 +21142,7 @@
 b. Contractor sustainment support for a specific sustainment task that a service would otherwise conduct itself.</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="111.9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>1.1599999999999999</v>
       </c>
@@ -21122,7 +21208,7 @@
         <v>K.3.11.3 Maintenance (Industrial Facilities). The maintenance, preservation, and repair of industrial facilities and equipment.</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="149.15" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" ht="198.9" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>1.17</v>
       </c>
@@ -21152,16 +21238,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EEE5196-06D7-4BF0-A56C-8F906A7DC1FD}">
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.33203125" defaultRowHeight="12.45" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.4140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="114" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.9140625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="59.33203125" style="2"/>
   </cols>
   <sheetData>
@@ -21179,7 +21263,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -21193,7 +21277,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -21221,7 +21305,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>158</v>
       </c>
@@ -21235,7 +21319,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>160</v>
       </c>
@@ -21249,7 +21333,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>173</v>
       </c>
@@ -21263,7 +21347,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>347</v>
       </c>
@@ -21277,7 +21361,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>478</v>
       </c>
@@ -21291,7 +21375,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>480</v>
       </c>
@@ -21361,7 +21445,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>490</v>
       </c>
@@ -21375,7 +21459,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>491</v>
       </c>
@@ -21389,7 +21473,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>349</v>
       </c>
@@ -21403,7 +21487,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>351</v>
       </c>
@@ -21417,7 +21501,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>175</v>
       </c>
@@ -21431,7 +21515,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>203</v>
       </c>
@@ -21445,7 +21529,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>205</v>
       </c>
@@ -21459,7 +21543,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>498</v>
       </c>
@@ -21473,7 +21557,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>500</v>
       </c>
@@ -21487,7 +21571,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>501</v>
       </c>
@@ -21515,7 +21599,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>504</v>
       </c>
@@ -21529,7 +21613,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>506</v>
       </c>
@@ -21543,7 +21627,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>508</v>
       </c>
@@ -21557,7 +21641,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>509</v>
       </c>
@@ -21571,7 +21655,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>207</v>
       </c>
@@ -21585,7 +21669,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>209</v>
       </c>
@@ -21599,7 +21683,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>232</v>
       </c>
@@ -21613,7 +21697,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>380</v>
       </c>
@@ -21641,7 +21725,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>384</v>
       </c>
@@ -21669,7 +21753,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>513</v>
       </c>
@@ -21697,7 +21781,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>389</v>
       </c>
@@ -21725,7 +21809,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>392</v>
       </c>
@@ -21767,7 +21851,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>398</v>
       </c>
@@ -21795,7 +21879,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>522</v>
       </c>
@@ -21823,7 +21907,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>402</v>
       </c>
@@ -21837,7 +21921,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>404</v>
       </c>
@@ -21865,7 +21949,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>408</v>
       </c>
@@ -21893,7 +21977,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>415</v>
       </c>
@@ -21907,7 +21991,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>416</v>
       </c>
@@ -21921,7 +22005,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>418</v>
       </c>
@@ -21935,7 +22019,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>420</v>
       </c>
@@ -21977,7 +22061,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>531</v>
       </c>
@@ -21991,7 +22075,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>532</v>
       </c>
@@ -22019,7 +22103,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>534</v>
       </c>
@@ -22047,7 +22131,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>538</v>
       </c>
@@ -22061,7 +22145,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>539</v>
       </c>
@@ -22103,7 +22187,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>1.3</v>
       </c>
@@ -22131,7 +22215,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>47</v>
       </c>
@@ -22145,7 +22229,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>49</v>
       </c>
@@ -22159,7 +22243,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>51</v>
       </c>
@@ -22187,7 +22271,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>56</v>
       </c>
@@ -22243,7 +22327,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>64</v>
       </c>
@@ -22257,7 +22341,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>258</v>
       </c>
@@ -22271,7 +22355,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>260</v>
       </c>
@@ -22285,7 +22369,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>262</v>
       </c>
@@ -22299,7 +22383,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>1.5</v>
       </c>
@@ -22314,7 +22398,7 @@
         <v>K.3.2 Systems Engineering. The technical and management efforts of directing and controlling a totally integrated engineering effort of a system or program. The following represent many, but not all, of the systems engineering efforts needed for a system or program. If required, one or more areas of effort (e.g., software systems engineering, cybersecurity, etc., may be identified at the next level below systems engineering. In those cases, the remaining totality of systems engineering efforts will be defined as “core systems engineering” at the level equal to the segregated items.</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="111.9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" ht="161.6" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>67</v>
       </c>
@@ -22334,7 +22418,7 @@
 d. Analyzing the system requirements allocated to the software, developing the software requirements, developing the software architecture, designing the software, implementing the software in the code, integrating the software components, and testing the software to verify that the software satisfies the specified requirements allocated to the software component of a system or subsystem.</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="198.9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" ht="211.3" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>69</v>
       </c>
@@ -22362,7 +22446,7 @@
 l. Computer resources</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="186.45" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" ht="211.3" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>71</v>
       </c>
@@ -22390,7 +22474,7 @@
 l. Ensure the design of hardware, operating systems, and software applications adequately address cybersecurity requirements for the system</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>73</v>
       </c>
@@ -22401,7 +22485,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>75</v>
       </c>
@@ -22412,7 +22496,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>77</v>
       </c>
@@ -22423,7 +22507,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="397.75" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>553</v>
       </c>
@@ -22452,7 +22536,7 @@
 b. Any systems engineering efforts that are called out in software systems engineering, ILS systems engineering, cybersecurity systems engineering, or “other” systems engineering effort separately identified in the WBS.</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>554</v>
       </c>
@@ -22467,7 +22551,7 @@
         <v>K.3.2.5 Other Systems Engineering 1...n (Specify). This element should be replaced with other systems engineering elements that cannot be categorized into one of the above elements or need to be separately identified due to high cost, high risk concerns within systems engineering. Each additional element is to be clearly identified and defined.</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>1.6</v>
       </c>
@@ -22482,7 +22566,7 @@
         <v>K.3.3 Program Management. The business and administrative planning, organizing, directing, coordinating, controlling, and approval actions designated to accomplish overall program objectives, which are not associated with specific hardware elements and are not included in systems engineering. If required, one or more areas of effort (e.g., software program management, cybersecurity program management, etc.,) may be identified at the next level below program management. In those cases, the remaining totality of program management efforts will be defined as “core program management” at the level equal to the segregated items.</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="161.6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>80</v>
       </c>
@@ -22507,7 +22591,7 @@
 i. Ensure the use of mature technology and handle the project’s complexity</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" ht="149.15" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>86</v>
       </c>
@@ -22525,7 +22609,7 @@
 b. Planning and management of all the functions of logistics. Examples are: maintenance support planning and support facilities planning; other support requirements determination; support equipment requirements determination; supply support; packaging, handling, storage, and transportation; provisioning requirements determination and planning; training system requirements determination; computer resource determination; organizational, intermediate, and depot maintenance determination management; and data management</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
@@ -22545,7 +22629,7 @@
 d. Emerging tools and resources for organizational and platform security</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" ht="161.6" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
@@ -22566,7 +22650,7 @@
 b. Any program management efforts that are called out in software program management, cybersecurity program management, or “other” program management effort separately identified in the WBS.</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>265</v>
       </c>
@@ -22581,7 +22665,7 @@
         <v>K.3.3.5 Other Program Management 1...n (Specify). This element should be replaced with other program management elements that cannot be categorized into one of the above elements or need to be separately identified due to high cost or high risk concerns within program management. Each additional element is to be clearly identified and defined.</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="186.45" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" ht="236.15" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>556</v>
       </c>
@@ -22604,7 +22688,7 @@
 NOTE: These excluded efforts are to be included with the appropriate hardware or software elements.</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="372.9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>1.7</v>
       </c>
@@ -22640,7 +22724,7 @@
 g. For ordnance: test articles such as ballistic test rounds, inert measurement rounds, dummy rounds, launch separation rounds, etc.</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="161.6" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -22660,7 +22744,7 @@
 d. Logistics testing efforts to evaluate the achievement of supportability goals and the adequacy of the support for the system (e.g., deliverable maintenance tools, test equipment, technical publications, maintenance instructions, personnel skills and training requirements, and software support facility/environment elements)</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="149.15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" ht="161.6" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
@@ -22684,7 +22768,7 @@
 h. Security, IT certification, and accreditation compliance services</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>101</v>
       </c>
@@ -22702,7 +22786,7 @@
 b. SIL Software (written to simulate the operating environment or written to operate the SIL)</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="111.9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>266</v>
       </c>
@@ -22721,7 +22805,7 @@
 a. Operational and maintenance personnel, special fixtures, special instrumentation, etc., that are utilized and/or consumed in a single element of testing and that should be included under that element of testing</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>267</v>
       </c>
@@ -22740,7 +22824,7 @@
 a. Brick and mortar-type facilities identified as industrial facilities</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>557</v>
       </c>
@@ -22759,7 +22843,7 @@
 a. Overall planning, management, and task analysis functions inherent in the WBS element systems engineering/program management</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>1.8</v>
       </c>
@@ -22776,7 +22860,7 @@
 a. Operational and Maintenance Trainers and training equipment including items such as cutaways, mock-ups, and models (e.g. Operator Instructional Equipment, Maintainer Instructional Equipment)</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
@@ -22791,7 +22875,7 @@
         <v>[No definition provided.]</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
@@ -22806,7 +22890,7 @@
         <v>[No definition provided.]</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>108</v>
       </c>
@@ -22825,7 +22909,7 @@
 a. Deliverable training data associated with support data (see Data Deliverables 1...n (Specify), Support Data)</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>114</v>
       </c>
@@ -22840,7 +22924,7 @@
         <v>[No definition provided.]</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>116</v>
       </c>
@@ -22875,7 +22959,7 @@
 b. The brick and mortar-type facilities identified as industrial facilities</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>268</v>
       </c>
@@ -22909,7 +22993,7 @@
 c. Transforming data into Government</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="136.75" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" ht="211.3" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>1.9</v>
       </c>
@@ -22929,7 +23013,7 @@
 d. Support Data. The data items designed to document support planning in accordance with functional categories</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>125</v>
       </c>
@@ -22946,7 +23030,7 @@
 a. All effort necessary to maintain documents</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" ht="198.9" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>130</v>
       </c>
@@ -22965,7 +23049,7 @@
 c. Limited Rights. A limited rights agreement permits the Government to use proprietary technical data in whole or in part. It also means that the Government has to obtain the expressed permission of the party providing the technical data to release it, or disclose it, outside the Government.</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="149.15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" ht="223.75" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>273</v>
       </c>
@@ -22987,9 +23071,9 @@
 b. Common support equipment, presently in the DoD inventory or commercially available, bought by the using command, not by the acquiring command</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A118" s="1">
-        <v>1.1000000000000001</v>
+    <row r="118" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
+      <c r="A118" s="3" t="s">
+        <v>2277</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>103</v>
@@ -23005,7 +23089,7 @@
 b. Packages that enable line or shop replaceable units, printed circuit boards, or similar items to be diagnosed using automatic test equipment</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>136</v>
       </c>
@@ -23020,7 +23104,7 @@
         <v>K.3.7.1.1 Test and Measurement Equipment (Airframe/Hull/Vehicle). This element captures the cost of the airframe, ship hull, or ground vehicle hull/frame related test and measurement equipment. Identify the related WBS subassemblies associated with the airframe/hull/vehicle. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>450</v>
       </c>
@@ -23035,7 +23119,7 @@
         <v>K.3.7.1.2 Test and Measurement Equipment (Propulsion). This element captures the cost of the propulsion system, engines, prime movers, turbines, etc. related test and measurement equipment. Identify the related WBS subassemblies associated with propulsion. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>451</v>
       </c>
@@ -23050,7 +23134,7 @@
         <v>K.3.7.1.3 Test and Measurement Equipment (Electronics/Avionics). This element captures the cost of the electronics/avionics related test and measurement equipment. Identify the related WBS subassemblies associated with electronics/avionics. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>559</v>
       </c>
@@ -23065,7 +23149,7 @@
         <v>K.3.7.1.4 Test and Measurement Equipment (Other Major Subsystem 1...n (Specify)). This element captures the cost of other major subsystems (e.g., armament, weapons, vehicle subsystems, etc.) not captured above related test and measurement equipment. Identify the related WBS subassemblies associated with the other major subsystems. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>560</v>
       </c>
@@ -23082,7 +23166,7 @@
 a. Ground support equipment, vehicular support equipment, powered support equipment, non-powered support equipment, munitions material handling equipment, materiel handling equipment, and software support equipment (hardware and software)</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>138</v>
       </c>
@@ -23097,7 +23181,7 @@
         <v xml:space="preserve">K.3.7.2.1 Support and Handling Equipment (Airframe/Hull/Vehicle). This element captures the cost of the airframe, ship hull, or ground vehicle hull/frame related support and handling equipment. Identify the related WBS subassemblies associated with airframe/hull/vehicle. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested. </v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>452</v>
       </c>
@@ -23112,7 +23196,7 @@
         <v>K.3.7.2.2 Support and Handling Equipment (Propulsion). This element captures the cost of propulsion related support and handling equipment. Identify the related WBS subassemblies associated with propulsion. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>453</v>
       </c>
@@ -23127,7 +23211,7 @@
         <v>K.3.7.2.3 Support and Handling Equipment (Electronics/Avionics). This element captures the cost of the electronics/avionics related support and handling equipment. Identify the related WBS subassemblies associated with electronics/avionics. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>562</v>
       </c>
@@ -23160,7 +23244,7 @@
 b. All efforts required to assure the availability of this equipment to support the item</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>1.1100000000000001</v>
       </c>
@@ -23178,7 +23262,7 @@
 b. Packages that enable line or shop replaceable units, printed circuit boards, or similar items to be diagnosed using automatic test equipment</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>275</v>
       </c>
@@ -23193,7 +23277,7 @@
         <v>K.3.8.1.1 Test and Measurement Equipment (Airframe/Hull/Vehicle). This element captures the cost of the airframe, ship hull, or ground vehicle hull/frame related test and measurement equipment. Identify the related WBS subassemblies associated with the airframe/hull/vehicle. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>276</v>
       </c>
@@ -23208,7 +23292,7 @@
         <v>K.3.8.1.2 Test and Measurement Equipment (Propulsion). This element captures the cost of the propulsion system, engines, prime movers, turbines, etc. related test and measurement equipment. Identify the related WBS subassemblies associated with propulsion. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>277</v>
       </c>
@@ -23223,7 +23307,7 @@
         <v>K.3.8.1.3 Test and Measurement Equipment (Electronics/Avionics). This element captures the cost of the electronics/avionics related test and measurement equipment. Identify the related WBS subassemblies associated with electronics/avionics. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>278</v>
       </c>
@@ -23238,7 +23322,7 @@
         <v>K.3.8.1.4 Test and Measurement Equipment (Other Major Subsystem 1...n (Specify)). This element captures the cost of other major subsystems (e.g., armament, weapons, vehicle subsystems, etc.) not captured above related test and measurement equipment. Identify the related WBS subassemblies associated with the other major subsystems. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>279</v>
       </c>
@@ -23255,7 +23339,7 @@
 a. Ground support equipment, vehicular support equipment, powered support equipment, non-powered support equipment, munitions material handling equipment, materiel handling equipment, and software support equipment (hardware/software)</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>280</v>
       </c>
@@ -23270,7 +23354,7 @@
         <v>K.3.8.2.1 Support and Handling Equipment (Airframe/Hull/Vehicle). This element captures the cost of the airframe, ship hull, or ground vehicle hull/frame related support and handling equipment. Identify the related WBS subassemblies associated with airframe/hull/vehicle. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>281</v>
       </c>
@@ -23285,7 +23369,7 @@
         <v>K.3.8.2.2 Support and Handling Equipment (Propulsion). This element captures the cost of propulsion related support and handling equipment. Identify the related WBS subassemblies associated with propulsion. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>282</v>
       </c>
@@ -23300,7 +23384,7 @@
         <v>K.3.8.2.3 Support and Handling Equipment (Electronics/Avionics). This element captures the cost of the electronics/avionics related support and handling equipment. Identify the related WBS subassemblies associated with electronics/avionics. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>283</v>
       </c>
@@ -23315,7 +23399,7 @@
         <v>K.3.8.2.4 Support and Handling Equipment (Other Major Subsystem 1...n (Specify)). This element captures the cost of other major subsystems (e.g., armament, weapons, vehicle subsystems, etc.) not captured above related support and handling equipment. Identify the related WBS subassemblies associated with the other major subsystems. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>284</v>
       </c>
@@ -23334,7 +23418,7 @@
 c. Contractor support in relation to operational/site activation</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" ht="136.75" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>1.1200000000000001</v>
       </c>
@@ -23371,7 +23455,7 @@
 a. Repair of reparables, standby services, and final turnover</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>150</v>
       </c>
@@ -23388,7 +23472,7 @@
 a. Construction of utilities, roads, and interconnecting cabling</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>152</v>
       </c>
@@ -23405,7 +23489,7 @@
 a. Operations, support, and other special purpose facilities conversion necessary to achieve system operational status, e.g., launch. Where appropriate, specify by site, ship, or vehicle</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" ht="136.75" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>565</v>
       </c>
@@ -23424,7 +23508,7 @@
 a. The development and production of the original prime mission product.</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="198.9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>566</v>
       </c>
@@ -23450,7 +23534,7 @@
 b. Contractor sustainment support for a specific sustainment task that a service would otherwise conduct itself.</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="111.9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>568</v>
       </c>
@@ -23471,7 +23555,7 @@
 a. Capital equipment</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>570</v>
       </c>
@@ -23486,7 +23570,7 @@
         <v>K.3.11.1 Construction/Conversion/Expansion. The real estate and preparation of system peculiar industrial facilities for production, inventory, depot maintenance, and other related activities.</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>572</v>
       </c>
@@ -23501,7 +23585,7 @@
         <v>K.3.11.2 Equipment Acquisition or Modernization. The production equipment acquisition, modernization, or transfer of equipment for the particular system. This pertains to Government owned and leased equipment under facilities contract.</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>1.1299999999999999</v>
       </c>
@@ -23516,7 +23600,7 @@
         <v>K.3.11.3 Maintenance (Industrial Facilities). The maintenance, preservation, and repair of industrial facilities and equipment.</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="149.15" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" ht="198.9" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>1.1399999999999999</v>
       </c>
@@ -23546,16 +23630,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA0D737-0415-4E0A-9831-350EE56CF723}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.33203125" defaultRowHeight="12.45" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="207" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.9140625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="59.33203125" style="2"/>
   </cols>
   <sheetData>
@@ -24820,8 +24902,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="198.9" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
-        <v>1.1000000000000001</v>
+      <c r="A73" s="3" t="s">
+        <v>2277</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>146</v>
@@ -24941,16 +25023,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92094958-8DFB-49A7-8188-1E734F46CAC9}">
   <dimension ref="A1:D404"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.33203125" defaultRowHeight="12.45" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.9140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="105.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.9140625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="59.33203125" style="2"/>
   </cols>
   <sheetData>
@@ -25278,7 +25358,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>628</v>
       </c>
@@ -25289,7 +25369,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>629</v>
       </c>
@@ -25300,7 +25380,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>630</v>
       </c>
@@ -25409,7 +25489,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>644</v>
       </c>
@@ -25420,7 +25500,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>645</v>
       </c>
@@ -25431,7 +25511,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>646</v>
       </c>
@@ -25610,7 +25690,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>670</v>
       </c>
@@ -25621,7 +25701,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>671</v>
       </c>
@@ -25632,7 +25712,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>672</v>
       </c>
@@ -25864,7 +25944,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>702</v>
       </c>
@@ -25875,7 +25955,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>703</v>
       </c>
@@ -26241,7 +26321,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>753</v>
       </c>
@@ -26252,7 +26332,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>754</v>
       </c>
@@ -26263,7 +26343,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>755</v>
       </c>
@@ -26274,7 +26354,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>756</v>
       </c>
@@ -26285,7 +26365,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>173</v>
       </c>
@@ -26296,7 +26376,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>347</v>
       </c>
@@ -26307,7 +26387,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>349</v>
       </c>
@@ -26318,7 +26398,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>351</v>
       </c>
@@ -26329,7 +26409,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>353</v>
       </c>
@@ -26354,7 +26434,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>177</v>
       </c>
@@ -26365,7 +26445,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>760</v>
       </c>
@@ -26376,7 +26456,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>761</v>
       </c>
@@ -26387,7 +26467,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>762</v>
       </c>
@@ -26398,7 +26478,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>763</v>
       </c>
@@ -26423,7 +26503,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>764</v>
       </c>
@@ -26434,7 +26514,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>765</v>
       </c>
@@ -26445,7 +26525,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>766</v>
       </c>
@@ -26512,7 +26592,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>772</v>
       </c>
@@ -26523,7 +26603,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>773</v>
       </c>
@@ -26534,7 +26614,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>774</v>
       </c>
@@ -26657,7 +26737,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>786</v>
       </c>
@@ -26668,7 +26748,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>787</v>
       </c>
@@ -26679,7 +26759,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>788</v>
       </c>
@@ -26774,7 +26854,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>797</v>
       </c>
@@ -26785,7 +26865,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>798</v>
       </c>
@@ -26796,7 +26876,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>799</v>
       </c>
@@ -26947,7 +27027,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>815</v>
       </c>
@@ -26958,7 +27038,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>816</v>
       </c>
@@ -26969,7 +27049,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>817</v>
       </c>
@@ -27092,7 +27172,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>832</v>
       </c>
@@ -27114,7 +27194,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>834</v>
       </c>
@@ -27279,7 +27359,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>854</v>
       </c>
@@ -27290,7 +27370,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>855</v>
       </c>
@@ -27301,7 +27381,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>856</v>
       </c>
@@ -27424,7 +27504,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>871</v>
       </c>
@@ -27435,7 +27515,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>872</v>
       </c>
@@ -27446,7 +27526,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>873</v>
       </c>
@@ -27650,7 +27730,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>899</v>
       </c>
@@ -27661,7 +27741,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>900</v>
       </c>
@@ -27672,7 +27752,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>901</v>
       </c>
@@ -27806,7 +27886,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>910</v>
       </c>
@@ -27817,7 +27897,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>911</v>
       </c>
@@ -27828,7 +27908,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>912</v>
       </c>
@@ -27839,7 +27919,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>913</v>
       </c>
@@ -27864,7 +27944,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>915</v>
       </c>
@@ -27875,7 +27955,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>916</v>
       </c>
@@ -27886,7 +27966,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>917</v>
       </c>
@@ -27897,7 +27977,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>918</v>
       </c>
@@ -27908,7 +27988,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>919</v>
       </c>
@@ -27944,7 +28024,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>923</v>
       </c>
@@ -27955,7 +28035,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>924</v>
       </c>
@@ -28195,7 +28275,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>955</v>
       </c>
@@ -28206,7 +28286,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>956</v>
       </c>
@@ -28217,7 +28297,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>957</v>
       </c>
@@ -28284,7 +28364,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>964</v>
       </c>
@@ -28295,7 +28375,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>965</v>
       </c>
@@ -28306,7 +28386,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>966</v>
       </c>
@@ -28317,7 +28397,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>967</v>
       </c>
@@ -28328,7 +28408,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>968</v>
       </c>
@@ -28353,7 +28433,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>971</v>
       </c>
@@ -28364,7 +28444,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>972</v>
       </c>
@@ -28375,7 +28455,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>973</v>
       </c>
@@ -28498,7 +28578,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>987</v>
       </c>
@@ -28509,7 +28589,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>988</v>
       </c>
@@ -28626,7 +28706,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>1000</v>
       </c>
@@ -28637,7 +28717,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>1001</v>
       </c>
@@ -28802,7 +28882,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>1017</v>
       </c>
@@ -28813,7 +28893,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
         <v>1018</v>
       </c>
@@ -28824,7 +28904,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
         <v>1019</v>
       </c>
@@ -28919,7 +28999,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
         <v>1030</v>
       </c>
@@ -28930,7 +29010,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
         <v>1031</v>
       </c>
@@ -28941,7 +29021,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
         <v>1032</v>
       </c>
@@ -29050,7 +29130,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
         <v>1047</v>
       </c>
@@ -29061,7 +29141,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
         <v>1048</v>
       </c>
@@ -29072,7 +29152,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
         <v>1049</v>
       </c>
@@ -29153,7 +29233,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
         <v>1057</v>
       </c>
@@ -29164,7 +29244,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
         <v>1058</v>
       </c>
@@ -29175,7 +29255,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
         <v>1059</v>
       </c>
@@ -29186,7 +29266,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
         <v>1060</v>
       </c>
@@ -29250,7 +29330,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
         <v>1065</v>
       </c>
@@ -29261,7 +29341,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
         <v>1066</v>
       </c>
@@ -29272,7 +29352,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
         <v>1067</v>
       </c>
@@ -29283,7 +29363,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
         <v>1068</v>
       </c>
@@ -29364,7 +29444,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
         <v>1077</v>
       </c>
@@ -29375,7 +29455,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
         <v>1078</v>
       </c>
@@ -29386,7 +29466,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
         <v>1079</v>
       </c>
@@ -29397,7 +29477,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
         <v>1080</v>
       </c>
@@ -29433,7 +29513,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
         <v>1084</v>
       </c>
@@ -29444,7 +29524,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
         <v>1085</v>
       </c>
@@ -29455,7 +29535,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
         <v>1086</v>
       </c>
@@ -29522,7 +29602,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
         <v>1093</v>
       </c>
@@ -29533,7 +29613,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
         <v>1094</v>
       </c>
@@ -29544,7 +29624,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
         <v>1095</v>
       </c>
@@ -29555,7 +29635,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
         <v>1096</v>
       </c>
@@ -29566,7 +29646,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
         <v>1097</v>
       </c>
@@ -29591,7 +29671,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
         <v>1100</v>
       </c>
@@ -29602,7 +29682,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
         <v>1101</v>
       </c>
@@ -29613,7 +29693,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
         <v>1102</v>
       </c>
@@ -29736,7 +29816,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
         <v>1119</v>
       </c>
@@ -29747,7 +29827,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
         <v>1120</v>
       </c>
@@ -29758,7 +29838,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
         <v>1121</v>
       </c>
@@ -29825,7 +29905,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
         <v>1130</v>
       </c>
@@ -29836,7 +29916,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
         <v>1131</v>
       </c>
@@ -29847,7 +29927,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
         <v>1132</v>
       </c>
@@ -30026,7 +30106,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
         <v>1155</v>
       </c>
@@ -30037,7 +30117,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
         <v>1156</v>
       </c>
@@ -30048,7 +30128,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
         <v>1157</v>
       </c>
@@ -30059,7 +30139,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
         <v>1158</v>
       </c>
@@ -30070,7 +30150,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
         <v>1159</v>
       </c>
@@ -30160,16 +30240,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5658728-B877-447D-9570-8683E7808D9E}">
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.33203125" defaultRowHeight="12.45" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.08203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="84.9140625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="59.33203125" style="2"/>
   </cols>
   <sheetData>
@@ -31479,8 +31557,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
-        <v>1.1000000000000001</v>
+      <c r="A78" s="3" t="s">
+        <v>2277</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>135</v>
@@ -31814,16 +31892,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25C5E67-5774-4FDE-AFB2-B19B28705B67}">
   <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.33203125" defaultRowHeight="12.45" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.9140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="134" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.9140625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="59.33203125" style="2"/>
   </cols>
   <sheetData>
@@ -31911,7 +31987,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="248.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="236.15" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>173</v>
       </c>
@@ -32009,7 +32085,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="211.3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="198.9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>386</v>
       </c>
@@ -32023,7 +32099,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="149.15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="136.75" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>513</v>
       </c>
@@ -32709,7 +32785,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>1.8</v>
       </c>
@@ -32724,7 +32800,7 @@
         <v>K.3.2 Systems Engineering. The technical and management efforts of directing and controlling a totally integrated engineering effort of a system or program. The following represent many, but not all, of the systems engineering efforts needed for a system or program. If required, one or more areas of effort (e.g., software systems engineering, cybersecurity, etc., may be identified at the next level below systems engineering. In those cases, the remaining totality of systems engineering efforts will be defined as “core systems engineering” at the level equal to the segregated items.</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="111.9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" ht="136.75" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>104</v>
       </c>
@@ -32744,7 +32820,7 @@
 d. Analyzing the system requirements allocated to the software, developing the software requirements, developing the software architecture, designing the software, implementing the software in the code, integrating the software components, and testing the software to verify that the software satisfies the specified requirements allocated to the software component of a system or subsystem.</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="198.9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" ht="211.3" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>114</v>
       </c>
@@ -32772,7 +32848,7 @@
 l. Computer resources</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="186.45" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" ht="198.9" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>268</v>
       </c>
@@ -32800,7 +32876,7 @@
 l. Ensure the design of hardware, operating systems, and software applications adequately address cybersecurity requirements for the system</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="397.75" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>269</v>
       </c>
@@ -32829,7 +32905,7 @@
 b. Any systems engineering efforts that are called out in software systems engineering, ILS systems engineering, cybersecurity systems engineering, or “other” systems engineering effort separately identified in the WBS.</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>270</v>
       </c>
@@ -32844,7 +32920,7 @@
         <v>K.3.2.5 Other Systems Engineering 1...n (Specify). This element should be replaced with other systems engineering elements that cannot be categorized into one of the above elements or need to be separately identified due to high cost, high risk concerns within systems engineering. Each additional element is to be clearly identified and defined.</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="37.299999999999997" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>1.9</v>
       </c>
@@ -32859,7 +32935,7 @@
         <v>K.3.3 Program Management. The business and administrative planning, organizing, directing, coordinating, controlling, and approval actions designated to accomplish overall program objectives, which are not associated with specific hardware elements and are not included in systems engineering. If required, one or more areas of effort (e.g., software program management, cybersecurity program management, etc.,) may be identified at the next level below program management. In those cases, the remaining totality of program management efforts will be defined as “core program management” at the level equal to the segregated items.</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="161.6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>125</v>
       </c>
@@ -32884,7 +32960,7 @@
 i. Ensure the use of mature technology and handle the project’s complexity</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" ht="136.75" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>130</v>
       </c>
@@ -32902,7 +32978,7 @@
 b. Planning and management of all the functions of logistics. Examples are: maintenance support planning and support facilities planning; other support requirements determination; support equipment requirements determination; supply support; packaging, handling, storage, and transportation; provisioning requirements determination and planning; training system requirements determination; computer resource determination; organizational, intermediate, and depot maintenance determination management; and data management</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>273</v>
       </c>
@@ -32922,7 +32998,7 @@
 d. Emerging tools and resources for organizational and platform security</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" ht="149.15" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>274</v>
       </c>
@@ -32943,7 +33019,7 @@
 b. Any program management efforts that are called out in software program management, cybersecurity program management, or “other” program management effort separately identified in the WBS.</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>448</v>
       </c>
@@ -32958,9 +33034,9 @@
         <v>K.3.3.5 Other Program Management 1...n (Specify). This element should be replaced with other program management elements that cannot be categorized into one of the above elements or need to be separately identified due to high cost or high risk concerns within program management. Each additional element is to be clearly identified and defined.</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="186.45" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
-        <v>1.1000000000000001</v>
+    <row r="76" spans="1:4" ht="211.3" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>2277</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>66</v>
@@ -32981,7 +33057,7 @@
 NOTE: These excluded efforts are to be included with the appropriate hardware or software elements.</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="372.9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>136</v>
       </c>
@@ -33017,7 +33093,7 @@
 g. For ordnance: test articles such as ballistic test rounds, inert measurement rounds, dummy rounds, launch separation rounds, etc.</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" ht="149.15" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>138</v>
       </c>
@@ -33037,7 +33113,7 @@
 d. Logistics testing efforts to evaluate the achievement of supportability goals and the adequacy of the support for the system (e.g., deliverable maintenance tools, test equipment, technical publications, maintenance instructions, personnel skills and training requirements, and software support facility/environment elements)</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="149.15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" ht="161.6" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>140</v>
       </c>
@@ -33061,7 +33137,7 @@
 h. Security, IT certification, and accreditation compliance services</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>142</v>
       </c>
@@ -33079,7 +33155,7 @@
 b. SIL Software (written to simulate the operating environment or written to operate the SIL)</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="111.9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>144</v>
       </c>
@@ -33098,7 +33174,7 @@
 a. Operational and maintenance personnel, special fixtures, special instrumentation, etc., that are utilized and/or consumed in a single element of testing and that should be included under that element of testing</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>1226</v>
       </c>
@@ -33117,7 +33193,7 @@
 a. Brick and mortar-type facilities identified as industrial facilities</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" ht="111.9" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>1.1100000000000001</v>
       </c>
@@ -33136,7 +33212,7 @@
 a. Overall planning, management, and task analysis functions inherent in the WBS element systems engineering/program management</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>275</v>
       </c>
@@ -33153,7 +33229,7 @@
 a. Operational and Maintenance Trainers and training equipment including items such as cutaways, mock-ups, and models (e.g. Operator Instructional Equipment, Maintainer Instructional Equipment)</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>276</v>
       </c>
@@ -33168,7 +33244,7 @@
         <v>[No definition provided.]</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>277</v>
       </c>
@@ -33202,7 +33278,7 @@
 a. Deliverable training data associated with support data (see Data Deliverables 1...n (Specify), Support Data)</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>281</v>
       </c>
@@ -33217,7 +33293,7 @@
         <v>[No definition provided.]</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>282</v>
       </c>
@@ -33252,7 +33328,7 @@
 b. The brick and mortar-type facilities identified as industrial facilities</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>1227</v>
       </c>
@@ -33267,7 +33343,7 @@
         <v>K.3.5.4 Training Software Release 1...n (Specify). Updated/upgraded software for training purposes delivered to the field during the acquisition phase.</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>1.1200000000000001</v>
       </c>
@@ -33286,7 +33362,7 @@
 c. Transforming data into Government</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="136.75" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>148</v>
       </c>
@@ -33306,7 +33382,7 @@
 d. Support Data. The data items designed to document support planning in accordance with functional categories</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>150</v>
       </c>
@@ -33323,7 +33399,7 @@
 a. All effort necessary to maintain documents</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" ht="161.6" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>152</v>
       </c>
@@ -33342,7 +33418,7 @@
 c. Limited Rights. A limited rights agreement permits the Government to use proprietary technical data in whole or in part. It also means that the Government has to obtain the expressed permission of the party providing the technical data to release it, or disclose it, outside the Government.</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="149.15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" ht="198.9" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>1.1299999999999999</v>
       </c>
@@ -33364,7 +33440,7 @@
 b. Common support equipment, presently in the DoD inventory or commercially available, bought by the using command, not by the acquiring command</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" ht="111.9" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>293</v>
       </c>
@@ -33382,7 +33458,7 @@
 b. Packages that enable line or shop replaceable units, printed circuit boards, or similar items to be diagnosed using automatic test equipment</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>455</v>
       </c>
@@ -33397,7 +33473,7 @@
         <v>K.3.7.1.1 Test and Measurement Equipment (Airframe/Hull/Vehicle). This element captures the cost of the airframe, ship hull, or ground vehicle hull/frame related test and measurement equipment. Identify the related WBS subassemblies associated with the airframe/hull/vehicle. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>456</v>
       </c>
@@ -33412,7 +33488,7 @@
         <v>K.3.7.1.2 Test and Measurement Equipment (Propulsion). This element captures the cost of the propulsion system, engines, prime movers, turbines, etc. related test and measurement equipment. Identify the related WBS subassemblies associated with propulsion. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>457</v>
       </c>
@@ -33427,7 +33503,7 @@
         <v>K.3.7.1.3 Test and Measurement Equipment (Electronics/Avionics). This element captures the cost of the electronics/avionics related test and measurement equipment. Identify the related WBS subassemblies associated with electronics/avionics. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>458</v>
       </c>
@@ -33442,7 +33518,7 @@
         <v>K.3.7.1.4 Test and Measurement Equipment (Other Major Subsystem 1...n (Specify)). This element captures the cost of other major subsystems (e.g., armament, weapons, vehicle subsystems, etc.) not captured above related test and measurement equipment. Identify the related WBS subassemblies associated with the other major subsystems. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="62.15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>295</v>
       </c>
@@ -33459,7 +33535,7 @@
 a. Ground support equipment, vehicular support equipment, powered support equipment, non-powered support equipment, munitions material handling equipment, materiel handling equipment, and software support equipment (hardware and software)</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>459</v>
       </c>
@@ -33474,7 +33550,7 @@
         <v xml:space="preserve">K.3.7.2.1 Support and Handling Equipment (Airframe/Hull/Vehicle). This element captures the cost of the airframe, ship hull, or ground vehicle hull/frame related support and handling equipment. Identify the related WBS subassemblies associated with airframe/hull/vehicle. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested. </v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>460</v>
       </c>
@@ -33489,7 +33565,7 @@
         <v>K.3.7.2.2 Support and Handling Equipment (Propulsion). This element captures the cost of propulsion related support and handling equipment. Identify the related WBS subassemblies associated with propulsion. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>461</v>
       </c>
@@ -33504,7 +33580,7 @@
         <v>K.3.7.2.3 Support and Handling Equipment (Electronics/Avionics). This element captures the cost of the electronics/avionics related support and handling equipment. Identify the related WBS subassemblies associated with electronics/avionics. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>462</v>
       </c>
@@ -33519,7 +33595,7 @@
         <v>K.3.7.2.4 Support and Handling Equipment (Other Major Subsystem 1...n (Specify)). This element captures the cost of other major subsystems (e.g., armament, weapons, vehicle subsystems, etc.) not captured above related support and handling equipment. Identify the related WBS subassemblies associated with the other major subsystems. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>1.1399999999999999</v>
       </c>
@@ -33537,7 +33613,7 @@
 b. All efforts required to assure the availability of this equipment to support the item</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" ht="111.9" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>463</v>
       </c>
@@ -33555,7 +33631,7 @@
 b. Packages that enable line or shop replaceable units, printed circuit boards, or similar items to be diagnosed using automatic test equipment</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>1229</v>
       </c>
@@ -33570,7 +33646,7 @@
         <v>K.3.8.1.1 Test and Measurement Equipment (Airframe/Hull/Vehicle). This element captures the cost of the airframe, ship hull, or ground vehicle hull/frame related test and measurement equipment. Identify the related WBS subassemblies associated with the airframe/hull/vehicle. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>1230</v>
       </c>
@@ -33585,7 +33661,7 @@
         <v>K.3.8.1.2 Test and Measurement Equipment (Propulsion). This element captures the cost of the propulsion system, engines, prime movers, turbines, etc. related test and measurement equipment. Identify the related WBS subassemblies associated with propulsion. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>1231</v>
       </c>
@@ -33600,7 +33676,7 @@
         <v>K.3.8.1.3 Test and Measurement Equipment (Electronics/Avionics). This element captures the cost of the electronics/avionics related test and measurement equipment. Identify the related WBS subassemblies associated with electronics/avionics. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>1232</v>
       </c>
@@ -33615,7 +33691,7 @@
         <v>K.3.8.1.4 Test and Measurement Equipment (Other Major Subsystem 1...n (Specify)). This element captures the cost of other major subsystems (e.g., armament, weapons, vehicle subsystems, etc.) not captured above related test and measurement equipment. Identify the related WBS subassemblies associated with the other major subsystems. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>464</v>
       </c>
@@ -33632,7 +33708,7 @@
 a. Ground support equipment, vehicular support equipment, powered support equipment, non-powered support equipment, munitions material handling equipment, materiel handling equipment, and software support equipment (hardware/software)</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>1233</v>
       </c>
@@ -33647,7 +33723,7 @@
         <v>K.3.8.2.1 Support and Handling Equipment (Airframe/Hull/Vehicle). This element captures the cost of the airframe, ship hull, or ground vehicle hull/frame related support and handling equipment. Identify the related WBS subassemblies associated with airframe/hull/vehicle. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>1234</v>
       </c>
@@ -33662,7 +33738,7 @@
         <v>K.3.8.2.2 Support and Handling Equipment (Propulsion). This element captures the cost of propulsion related support and handling equipment. Identify the related WBS subassemblies associated with propulsion. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>1235</v>
       </c>
@@ -33677,7 +33753,7 @@
         <v>K.3.8.2.3 Support and Handling Equipment (Electronics/Avionics). This element captures the cost of the electronics/avionics related support and handling equipment. Identify the related WBS subassemblies associated with electronics/avionics. If necessary, further breakdown by maintenance level (operational/intermediate/depot), may be requested.</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="24.9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>1236</v>
       </c>
@@ -33711,7 +33787,7 @@
 c. Contractor support in relation to operational/site activation</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>300</v>
       </c>
@@ -33731,7 +33807,7 @@
 a. Field team installation</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>301</v>
       </c>
@@ -33748,7 +33824,7 @@
 a. Repair of reparables, standby services, and final turnover</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>302</v>
       </c>
@@ -33765,7 +33841,7 @@
 a. Construction of utilities, roads, and interconnecting cabling</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="49.75" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>1237</v>
       </c>
@@ -33782,7 +33858,7 @@
 a. Operations, support, and other special purpose facilities conversion necessary to achieve system operational status, e.g., launch. Where appropriate, specify by site, ship, or vehicle</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="99.45" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" ht="111.9" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>1238</v>
       </c>
@@ -33801,7 +33877,7 @@
 a. The development and production of the original prime mission product.</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="198.9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" ht="236.15" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>1.1599999999999999</v>
       </c>
@@ -33827,7 +33903,7 @@
 b. Contractor sustainment support for a specific sustainment task that a service would otherwise conduct itself.</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="111.9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" ht="124.3" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>1.17</v>
       </c>
@@ -33848,7 +33924,7 @@
 a. Capital equipment</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>1239</v>
       </c>
@@ -33863,7 +33939,7 @@
         <v>K.3.11.1 Construction/Conversion/Expansion. The real estate and preparation of system peculiar industrial facilities for production, inventory, depot maintenance, and other related activities.</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>1240</v>
       </c>
@@ -33878,7 +33954,7 @@
         <v>K.3.11.2 Equipment Acquisition or Modernization. The production equipment acquisition, modernization, or transfer of equipment for the particular system. This pertains to Government owned and leased equipment under facilities contract.</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>1241</v>
       </c>
@@ -33893,7 +33969,7 @@
         <v>K.3.11.3 Maintenance (Industrial Facilities). The maintenance, preservation, and repair of industrial facilities and equipment.</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="149.15" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>1.18</v>
       </c>
@@ -33924,16 +34000,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC941095-C52D-4FDC-8475-37C6E3762170}">
   <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.33203125" defaultRowHeight="12.45" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="2" customWidth="1"/>
-    <col min="4" max="4" width="130.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.9140625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="59.33203125" style="2"/>
   </cols>
   <sheetData>
@@ -35264,8 +35338,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="74.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
-        <v>1.1000000000000001</v>
+      <c r="A89" s="3" t="s">
+        <v>2277</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>124</v>
